--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807307.41562866</v>
+        <v>1804518.875967163</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9884420.382518079</v>
+        <v>9884420.382518077</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.8633697788017</v>
+        <v>13.86336977880169</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.39414680517143</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.311973307358292</v>
+        <v>12.93536422592247</v>
       </c>
       <c r="L2" t="n">
-        <v>8.623390918561341</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.242372557207232</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22.39414680517143</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22.39414680517143</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.48239194878776</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.39414680517143</v>
+        <v>19.7247645059963</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -902,43 +902,43 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>32.68636186295921</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.70732065777799</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35.2180108332174</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.63689302957772</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17.14684397594775</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.810057396252972</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44799022605971</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1126601249237</v>
+        <v>81.30196747731284</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>64.54245901085127</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1215,61 +1215,61 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.403145536226258</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64.26286446312977</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30.08282103867671</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>9.256558775821418</v>
-      </c>
-      <c r="R9" t="n">
-        <v>82.095592888813</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>7.396679373398285</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="L10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>206.1053100995698</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4649854056571</v>
       </c>
       <c r="H11" t="n">
-        <v>289.930173324576</v>
+        <v>289.9301733245761</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.96845136975705</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.77979339151631</v>
+        <v>98.77979339151644</v>
       </c>
       <c r="T11" t="n">
         <v>201.9185897048916</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>150.9499741977557</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7550915887857</v>
       </c>
       <c r="H12" t="n">
-        <v>87.23670250455044</v>
+        <v>87.23670250455046</v>
       </c>
       <c r="I12" t="n">
-        <v>10.40334158229957</v>
+        <v>10.40334158229967</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6043013332695</v>
+        <v>123.6043013332696</v>
       </c>
       <c r="T12" t="n">
         <v>189.7315571908896</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>132.0528509127931</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8209303077114</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.72009496810969</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.1985613980382</v>
+        <v>186.1985613980383</v>
       </c>
       <c r="T13" t="n">
         <v>218.6735616659972</v>
       </c>
       <c r="U13" t="n">
-        <v>38.28248792832397</v>
+        <v>286.2006630446319</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1622,10 @@
         <v>410.4649854056571</v>
       </c>
       <c r="H14" t="n">
-        <v>289.930173324576</v>
+        <v>289.9301733245761</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.96845136975699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.77979339151635</v>
+        <v>98.77979339151641</v>
       </c>
       <c r="T14" t="n">
         <v>201.9185897048916</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9586327390783</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>210.2391259748914</v>
+        <v>263.0643003361872</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.7550915887857</v>
       </c>
       <c r="H15" t="n">
-        <v>87.23670250455044</v>
+        <v>87.23670250455045</v>
       </c>
       <c r="I15" t="n">
-        <v>10.4033415822996</v>
+        <v>10.40334158229966</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.1704246971139</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8209303077114</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>90.19118165569138</v>
+        <v>0.303390328899778</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.72009496810972</v>
+        <v>79.72009496810978</v>
       </c>
       <c r="S16" t="n">
         <v>186.1985613980383</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>325.7481556019716</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.8547830534432</v>
+        <v>11.70632890071274</v>
       </c>
       <c r="H17" t="n">
         <v>258.3199709723621</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.1695910393024</v>
+        <v>67.16959103930247</v>
       </c>
       <c r="T17" t="n">
-        <v>170.3083873526776</v>
+        <v>170.3083873526777</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3484303868643</v>
+        <v>219.3484303868644</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
         <v>338.1208983262551</v>
@@ -1938,10 +1938,10 @@
         <v>134.7550915887857</v>
       </c>
       <c r="H18" t="n">
-        <v>87.23670250455044</v>
+        <v>87.23670250455045</v>
       </c>
       <c r="I18" t="n">
-        <v>10.4033415822996</v>
+        <v>10.40334158229966</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>2.832895990412531</v>
       </c>
       <c r="C19" t="n">
-        <v>107.2530075731047</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943552</v>
@@ -2020,7 +2020,7 @@
         <v>111.323261322217</v>
       </c>
       <c r="I19" t="n">
-        <v>58.58097930347743</v>
+        <v>58.58097930347749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.10989261589577</v>
+        <v>48.10989261589584</v>
       </c>
       <c r="S19" t="n">
-        <v>154.5883590458243</v>
+        <v>154.5883590458244</v>
       </c>
       <c r="T19" t="n">
         <v>187.0633593137833</v>
@@ -2068,7 +2068,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>289.587074534534</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>350.3201677200478</v>
@@ -2096,7 +2096,7 @@
         <v>378.8547830534432</v>
       </c>
       <c r="H20" t="n">
-        <v>177.6895382458017</v>
+        <v>258.3199709723621</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>67.16959103930247</v>
       </c>
       <c r="T20" t="n">
         <v>170.3083873526777</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>219.3484303868644</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2178,7 +2178,7 @@
         <v>87.23670250455045</v>
       </c>
       <c r="I21" t="n">
-        <v>10.40334158229962</v>
+        <v>10.40334158229966</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>134.2107279554974</v>
       </c>
       <c r="H22" t="n">
-        <v>111.323261322217</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>58.58097930347745</v>
+        <v>58.58097930347749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>48.10989261589579</v>
+        <v>14.04427209880248</v>
       </c>
       <c r="S22" t="n">
-        <v>154.5883590458243</v>
+        <v>154.5883590458244</v>
       </c>
       <c r="T22" t="n">
         <v>187.0633593137833</v>
@@ -2299,13 +2299,13 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>109.5239141450674</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943556</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424838</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
         <v>186.487270040142</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.123639311265</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
         <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684687</v>
       </c>
       <c r="E29" t="n">
         <v>350.3201677200478</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2950,7 +2950,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464144</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659984</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,7 +3004,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612646</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295166</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053443021</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221566</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295168</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707195</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221568</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295166</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262564</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659981</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221566</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368255</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894962</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295167</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943582</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139452993</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295389</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368259</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="C2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="D2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="E2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="F2" t="n">
-        <v>51.481310340265</v>
+        <v>60.01073616323272</v>
       </c>
       <c r="G2" t="n">
-        <v>37.47790652329358</v>
+        <v>46.00733234626132</v>
       </c>
       <c r="H2" t="n">
-        <v>37.47790652329358</v>
+        <v>46.00733234626132</v>
       </c>
       <c r="I2" t="n">
-        <v>37.47790652329358</v>
+        <v>46.00733234626132</v>
       </c>
       <c r="J2" t="n">
-        <v>14.85755621503961</v>
+        <v>46.00733234626132</v>
       </c>
       <c r="K2" t="n">
-        <v>10.5020276217484</v>
+        <v>32.94130787563256</v>
       </c>
       <c r="L2" t="n">
-        <v>1.791531744413715</v>
+        <v>32.94130787563256</v>
       </c>
       <c r="M2" t="n">
-        <v>23.96173708153344</v>
+        <v>55.11151321275375</v>
       </c>
       <c r="N2" t="n">
-        <v>46.13194241865315</v>
+        <v>77.28171854987494</v>
       </c>
       <c r="O2" t="n">
-        <v>58.42681108946847</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="P2" t="n">
-        <v>58.42681108946847</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="Q2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="R2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="S2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="T2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="U2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="V2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="W2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="X2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.42681108946847</v>
+        <v>66.9562369124362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.95623691243176</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="C3" t="n">
-        <v>66.95623691243176</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="D3" t="n">
-        <v>66.95623691243176</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="E3" t="n">
-        <v>60.65081008696991</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="F3" t="n">
-        <v>60.65081008696991</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="G3" t="n">
-        <v>60.65081008696991</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="H3" t="n">
-        <v>60.65081008696991</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="I3" t="n">
-        <v>38.03045977871594</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="J3" t="n">
-        <v>15.41010947046196</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="K3" t="n">
-        <v>1.791531744413715</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="L3" t="n">
-        <v>23.96173708153344</v>
+        <v>23.96173708153502</v>
       </c>
       <c r="M3" t="n">
-        <v>46.13194241865315</v>
+        <v>46.13194241865621</v>
       </c>
       <c r="N3" t="n">
-        <v>54.45067263757464</v>
+        <v>68.3021477557774</v>
       </c>
       <c r="O3" t="n">
-        <v>76.62087797469437</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="P3" t="n">
-        <v>89.57658722068574</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.95623691243176</v>
+        <v>69.65258266918025</v>
       </c>
       <c r="R3" t="n">
-        <v>66.95623691243176</v>
+        <v>69.65258266918025</v>
       </c>
       <c r="S3" t="n">
-        <v>66.95623691243176</v>
+        <v>69.65258266918025</v>
       </c>
       <c r="T3" t="n">
-        <v>66.95623691243176</v>
+        <v>69.65258266918025</v>
       </c>
       <c r="U3" t="n">
-        <v>66.95623691243176</v>
+        <v>69.65258266918025</v>
       </c>
       <c r="V3" t="n">
-        <v>66.95623691243176</v>
+        <v>47.03223236092478</v>
       </c>
       <c r="W3" t="n">
-        <v>66.95623691243176</v>
+        <v>24.41188205266931</v>
       </c>
       <c r="X3" t="n">
-        <v>66.95623691243176</v>
+        <v>1.791531744413833</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.95623691243176</v>
+        <v>1.791531744413833</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="C4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="D4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="E4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="F4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="G4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="H4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="I4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="J4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="K4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="L4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="M4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="N4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="O4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="P4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="R4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="S4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="T4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="U4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="V4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="W4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="X4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.791531744413715</v>
+        <v>89.57658722069166</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="C5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="D5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="E5" t="n">
-        <v>121.8996187744902</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="F5" t="n">
-        <v>71.6016318784047</v>
+        <v>99.50099906779938</v>
       </c>
       <c r="G5" t="n">
-        <v>21.30364498231921</v>
+        <v>85.65522062559938</v>
       </c>
       <c r="H5" t="n">
-        <v>21.30364498231921</v>
+        <v>85.65522062559938</v>
       </c>
       <c r="I5" t="n">
-        <v>21.30364498231921</v>
+        <v>50.08147230921817</v>
       </c>
       <c r="J5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
         <v>3.98360056216997</v>
@@ -4583,34 +4583,34 @@
         <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>154.9161459087924</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="R5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="T5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="U5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="W5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="X5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="Y5" t="n">
-        <v>154.9161459087924</v>
+        <v>106.4464998170029</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.23507643877</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="C6" t="n">
-        <v>151.23507643877</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="D6" t="n">
-        <v>151.23507643877</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E6" t="n">
-        <v>151.23507643877</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>151.23507643877</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G6" t="n">
-        <v>151.23507643877</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>100.9370895426845</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4650,10 +4650,10 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4665,31 +4665,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S6" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="T6" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="U6" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="V6" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="W6" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="C8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="D8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="E8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="G8" t="n">
         <v>140.996681329578</v>
@@ -4826,28 +4826,28 @@
         <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="T8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="U8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="V8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="W8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="X8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="C9" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2141240472905</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="E9" t="n">
-        <v>122.2141240472905</v>
+        <v>104.2676850340409</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993892</v>
+        <v>104.2676850340409</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>104.2676850340409</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>104.2676850340409</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="J9" t="n">
         <v>8.969012809993892</v>
@@ -4902,31 +4902,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.100581130178</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1757398283467</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1757398283467</v>
+        <v>335.205529262398</v>
       </c>
       <c r="T9" t="n">
-        <v>348.7043465218837</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="U9" t="n">
-        <v>235.4592352845871</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="V9" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="W9" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="X9" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="Y9" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251014</v>
       </c>
     </row>
     <row r="10">
@@ -4963,7 +4963,7 @@
         <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
         <v>8.969012809993892</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1923.334345499718</v>
+        <v>1744.746179568016</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.371828559306</v>
+        <v>1375.783662627605</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.106129952556</v>
+        <v>1017.517964020854</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.106129952556</v>
+        <v>809.3307821020969</v>
       </c>
       <c r="F11" t="n">
-        <v>785.1202251629486</v>
+        <v>809.3307821020969</v>
       </c>
       <c r="G11" t="n">
-        <v>370.509128793598</v>
+        <v>394.7196857327465</v>
       </c>
       <c r="H11" t="n">
-        <v>77.65036785968285</v>
+        <v>101.8609247988313</v>
       </c>
       <c r="I11" t="n">
-        <v>77.65036785968285</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J11" t="n">
-        <v>304.9071038490506</v>
+        <v>304.9071038490501</v>
       </c>
       <c r="K11" t="n">
-        <v>696.2445591115668</v>
+        <v>696.2445591115656</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.635038647557</v>
+        <v>1218.635038647556</v>
       </c>
       <c r="M11" t="n">
-        <v>1831.564538444996</v>
+        <v>1831.564538444993</v>
       </c>
       <c r="N11" t="n">
-        <v>2459.025686726053</v>
+        <v>2459.025686726049</v>
       </c>
       <c r="O11" t="n">
-        <v>3038.184195097029</v>
+        <v>3038.184195097025</v>
       </c>
       <c r="P11" t="n">
-        <v>3497.981581827049</v>
+        <v>3497.981581827044</v>
       </c>
       <c r="Q11" t="n">
-        <v>3795.097523932609</v>
+        <v>3795.097523932603</v>
       </c>
       <c r="R11" t="n">
-        <v>3882.518392984142</v>
+        <v>3882.518392984137</v>
       </c>
       <c r="S11" t="n">
-        <v>3782.740823901803</v>
+        <v>3782.740823901797</v>
       </c>
       <c r="T11" t="n">
-        <v>3578.78265248272</v>
+        <v>3578.782652482715</v>
       </c>
       <c r="U11" t="n">
-        <v>3578.78265248272</v>
+        <v>3578.782652482715</v>
       </c>
       <c r="V11" t="n">
-        <v>3426.307931070845</v>
+        <v>3247.719765139144</v>
       </c>
       <c r="W11" t="n">
-        <v>3073.539275800731</v>
+        <v>2894.95110986903</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.073517539651</v>
+        <v>2521.48535160795</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.934185563839</v>
+        <v>2131.346019632138</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1649421267743</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274871213188</v>
+        <v>458.9274871213189</v>
       </c>
       <c r="F12" t="n">
         <v>312.3929291482038</v>
@@ -5115,31 +5115,31 @@
         <v>88.15879370038948</v>
       </c>
       <c r="I12" t="n">
-        <v>77.65036785968285</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J12" t="n">
-        <v>77.65036785968285</v>
+        <v>194.1850759934567</v>
       </c>
       <c r="K12" t="n">
-        <v>77.65036785968285</v>
+        <v>269.8482415819673</v>
       </c>
       <c r="L12" t="n">
-        <v>496.8789353043051</v>
+        <v>689.0768090265889</v>
       </c>
       <c r="M12" t="n">
-        <v>1005.455767950379</v>
+        <v>1197.653641672662</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.901760954746</v>
+        <v>1734.099634677028</v>
       </c>
       <c r="O12" t="n">
-        <v>2010.425246123478</v>
+        <v>2202.623119845759</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.123582488201</v>
+        <v>2559.321456210482</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.647777629366</v>
+        <v>2559.321456210482</v>
       </c>
       <c r="R12" t="n">
         <v>2559.321456210482</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>691.5062312802286</v>
+        <v>676.5627081478498</v>
       </c>
       <c r="C13" t="n">
-        <v>522.5700483523217</v>
+        <v>676.5627081478505</v>
       </c>
       <c r="D13" t="n">
-        <v>372.453408939986</v>
+        <v>526.4460687355147</v>
       </c>
       <c r="E13" t="n">
-        <v>224.540315357593</v>
+        <v>378.5329751531216</v>
       </c>
       <c r="F13" t="n">
-        <v>77.65036785968285</v>
+        <v>245.1462570593912</v>
       </c>
       <c r="G13" t="n">
-        <v>77.65036785968285</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="H13" t="n">
-        <v>77.65036785968285</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="I13" t="n">
-        <v>77.65036785968285</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J13" t="n">
-        <v>137.1130227531387</v>
+        <v>137.1130227531384</v>
       </c>
       <c r="K13" t="n">
-        <v>364.665267662479</v>
+        <v>364.6652676624786</v>
       </c>
       <c r="L13" t="n">
-        <v>711.3802322534968</v>
+        <v>711.3802322534964</v>
       </c>
       <c r="M13" t="n">
-        <v>1087.331672484054</v>
+        <v>1087.331672484053</v>
       </c>
       <c r="N13" t="n">
-        <v>1459.778444180567</v>
+        <v>1459.778444180566</v>
       </c>
       <c r="O13" t="n">
-        <v>1787.77702458465</v>
+        <v>1787.777024584649</v>
       </c>
       <c r="P13" t="n">
-        <v>2044.915791397184</v>
+        <v>2044.915791397182</v>
       </c>
       <c r="Q13" t="n">
-        <v>2139.510264835914</v>
+        <v>2139.510264835912</v>
       </c>
       <c r="R13" t="n">
-        <v>2058.984916383278</v>
+        <v>2139.510264835912</v>
       </c>
       <c r="S13" t="n">
-        <v>1870.905561435765</v>
+        <v>1951.430909888398</v>
       </c>
       <c r="T13" t="n">
-        <v>1650.023175914556</v>
+        <v>1730.548524367189</v>
       </c>
       <c r="U13" t="n">
-        <v>1611.353996188976</v>
+        <v>1441.456945534228</v>
       </c>
       <c r="V13" t="n">
-        <v>1611.353996188976</v>
+        <v>1186.772457328341</v>
       </c>
       <c r="W13" t="n">
-        <v>1321.936826152016</v>
+        <v>897.3552872913799</v>
       </c>
       <c r="X13" t="n">
-        <v>1093.947275253998</v>
+        <v>897.3552872913799</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.1546961104683</v>
+        <v>676.5627081478498</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2309.122598097963</v>
+        <v>2333.333155037111</v>
       </c>
       <c r="C14" t="n">
-        <v>1940.160081157551</v>
+        <v>1964.370638096699</v>
       </c>
       <c r="D14" t="n">
-        <v>1581.8943825508</v>
+        <v>1606.104939489949</v>
       </c>
       <c r="E14" t="n">
-        <v>1196.106129952556</v>
+        <v>1220.316686891705</v>
       </c>
       <c r="F14" t="n">
-        <v>785.1202251629485</v>
+        <v>809.3307821020971</v>
       </c>
       <c r="G14" t="n">
-        <v>370.509128793598</v>
+        <v>394.7196857327465</v>
       </c>
       <c r="H14" t="n">
-        <v>77.65036785968282</v>
+        <v>101.8609247988313</v>
       </c>
       <c r="I14" t="n">
-        <v>77.65036785968282</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J14" t="n">
-        <v>304.9071038490501</v>
+        <v>304.90710384905</v>
       </c>
       <c r="K14" t="n">
-        <v>696.2445591115663</v>
+        <v>696.2445591115656</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.635038647557</v>
+        <v>1218.635038647556</v>
       </c>
       <c r="M14" t="n">
-        <v>1831.564538444995</v>
+        <v>1831.564538444993</v>
       </c>
       <c r="N14" t="n">
-        <v>2459.025686726051</v>
+        <v>2459.025686726049</v>
       </c>
       <c r="O14" t="n">
-        <v>3038.184195097027</v>
+        <v>3038.184195097025</v>
       </c>
       <c r="P14" t="n">
-        <v>3497.981581827047</v>
+        <v>3497.981581827044</v>
       </c>
       <c r="Q14" t="n">
-        <v>3795.097523932606</v>
+        <v>3795.097523932603</v>
       </c>
       <c r="R14" t="n">
-        <v>3882.518392984141</v>
+        <v>3882.518392984137</v>
       </c>
       <c r="S14" t="n">
-        <v>3782.740823901801</v>
+        <v>3782.740823901797</v>
       </c>
       <c r="T14" t="n">
-        <v>3578.782652482719</v>
+        <v>3578.782652482715</v>
       </c>
       <c r="U14" t="n">
-        <v>3578.782652482719</v>
+        <v>3325.289084059403</v>
       </c>
       <c r="V14" t="n">
-        <v>3247.719765139148</v>
+        <v>3325.289084059403</v>
       </c>
       <c r="W14" t="n">
-        <v>2894.951109869034</v>
+        <v>2972.520428789289</v>
       </c>
       <c r="X14" t="n">
-        <v>2521.485351607954</v>
+        <v>2599.054670528209</v>
       </c>
       <c r="Y14" t="n">
-        <v>2309.122598097963</v>
+        <v>2333.333155037111</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>88.15879370038948</v>
       </c>
       <c r="I15" t="n">
-        <v>77.65036785968282</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J15" t="n">
-        <v>194.185075993457</v>
+        <v>194.1850759934568</v>
       </c>
       <c r="K15" t="n">
-        <v>471.5162782942213</v>
+        <v>471.5162782942208</v>
       </c>
       <c r="L15" t="n">
-        <v>890.7448457388433</v>
+        <v>890.7448457388425</v>
       </c>
       <c r="M15" t="n">
-        <v>1399.321678384917</v>
+        <v>1399.321678384916</v>
       </c>
       <c r="N15" t="n">
-        <v>1935.767671389284</v>
+        <v>1734.099634677028</v>
       </c>
       <c r="O15" t="n">
-        <v>2404.291156558015</v>
+        <v>2202.623119845759</v>
       </c>
       <c r="P15" t="n">
         <v>2559.321456210482</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.5986440454667</v>
+        <v>414.3888948649746</v>
       </c>
       <c r="C16" t="n">
-        <v>755.6624611175598</v>
+        <v>245.4527119370678</v>
       </c>
       <c r="D16" t="n">
-        <v>605.5458217052241</v>
+        <v>245.4527119370678</v>
       </c>
       <c r="E16" t="n">
-        <v>457.6327281228309</v>
+        <v>245.4527119370678</v>
       </c>
       <c r="F16" t="n">
-        <v>336.2484607520088</v>
+        <v>245.4527119370678</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7525715523004</v>
+        <v>77.95682273735929</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7525715523004</v>
+        <v>77.95682273735929</v>
       </c>
       <c r="I16" t="n">
-        <v>77.65036785968282</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J16" t="n">
-        <v>137.1130227531386</v>
+        <v>137.1130227531384</v>
       </c>
       <c r="K16" t="n">
-        <v>364.665267662479</v>
+        <v>364.6652676624786</v>
       </c>
       <c r="L16" t="n">
-        <v>711.380232253497</v>
+        <v>711.3802322534964</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.331672484054</v>
+        <v>1087.331672484053</v>
       </c>
       <c r="N16" t="n">
-        <v>1459.778444180567</v>
+        <v>1459.778444180566</v>
       </c>
       <c r="O16" t="n">
-        <v>1787.77702458465</v>
+        <v>1787.777024584649</v>
       </c>
       <c r="P16" t="n">
-        <v>2044.915791397184</v>
+        <v>2044.915791397182</v>
       </c>
       <c r="Q16" t="n">
-        <v>2139.510264835914</v>
+        <v>2139.510264835912</v>
       </c>
       <c r="R16" t="n">
-        <v>2058.984916383278</v>
+        <v>2058.984916383276</v>
       </c>
       <c r="S16" t="n">
-        <v>1870.905561435764</v>
+        <v>1870.905561435763</v>
       </c>
       <c r="T16" t="n">
-        <v>1650.023175914555</v>
+        <v>1650.023175914554</v>
       </c>
       <c r="U16" t="n">
-        <v>1360.931597081593</v>
+        <v>1360.931597081592</v>
       </c>
       <c r="V16" t="n">
-        <v>1106.247108875706</v>
+        <v>1106.247108875705</v>
       </c>
       <c r="W16" t="n">
-        <v>1106.247108875706</v>
+        <v>816.8299388387445</v>
       </c>
       <c r="X16" t="n">
-        <v>1106.247108875706</v>
+        <v>816.8299388387445</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.247108875706</v>
+        <v>596.0373596952144</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2067.527747693104</v>
+        <v>1746.688589748453</v>
       </c>
       <c r="C17" t="n">
-        <v>1730.494728078162</v>
+        <v>1409.65557013351</v>
       </c>
       <c r="D17" t="n">
-        <v>1404.15852679688</v>
+        <v>1083.319368852229</v>
       </c>
       <c r="E17" t="n">
-        <v>1050.299771524104</v>
+        <v>729.4606135794529</v>
       </c>
       <c r="F17" t="n">
-        <v>721.2612305120115</v>
+        <v>350.4042061153141</v>
       </c>
       <c r="G17" t="n">
         <v>338.5796314681294</v>
       </c>
       <c r="H17" t="n">
-        <v>77.65036785968283</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="I17" t="n">
-        <v>77.65036785968283</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J17" t="n">
         <v>304.9071038490501</v>
       </c>
       <c r="K17" t="n">
-        <v>696.2445591115661</v>
+        <v>696.2445591115656</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.635038647557</v>
+        <v>1218.635038647556</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.564538444995</v>
+        <v>1831.564538444994</v>
       </c>
       <c r="N17" t="n">
-        <v>2459.025686726051</v>
+        <v>2459.02568672605</v>
       </c>
       <c r="O17" t="n">
-        <v>3038.184195097028</v>
+        <v>3038.184195097026</v>
       </c>
       <c r="P17" t="n">
-        <v>3497.981581827048</v>
+        <v>3497.981581827044</v>
       </c>
       <c r="Q17" t="n">
-        <v>3795.097523932607</v>
+        <v>3795.097523932603</v>
       </c>
       <c r="R17" t="n">
-        <v>3882.518392984141</v>
+        <v>3882.518392984137</v>
       </c>
       <c r="S17" t="n">
-        <v>3814.670321227271</v>
+        <v>3814.670321227266</v>
       </c>
       <c r="T17" t="n">
-        <v>3642.641647133657</v>
+        <v>3642.641647133652</v>
       </c>
       <c r="U17" t="n">
-        <v>3421.077576035814</v>
+        <v>3421.077576035809</v>
       </c>
       <c r="V17" t="n">
-        <v>3121.944186017712</v>
+        <v>3121.944186017707</v>
       </c>
       <c r="W17" t="n">
-        <v>3121.944186017712</v>
+        <v>2801.105028073061</v>
       </c>
       <c r="X17" t="n">
-        <v>2780.407925082101</v>
+        <v>2459.56876713745</v>
       </c>
       <c r="Y17" t="n">
-        <v>2422.198090431757</v>
+        <v>2101.358932487106</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>618.1649421267743</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9274871213189</v>
+        <v>458.9274871213188</v>
       </c>
       <c r="F18" t="n">
         <v>312.3929291482038</v>
@@ -5586,25 +5586,25 @@
         <v>176.2766750181172</v>
       </c>
       <c r="H18" t="n">
-        <v>88.15879370038951</v>
+        <v>88.15879370038948</v>
       </c>
       <c r="I18" t="n">
-        <v>77.65036785968283</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J18" t="n">
-        <v>194.185075993457</v>
+        <v>194.1850759934568</v>
       </c>
       <c r="K18" t="n">
-        <v>471.5162782942213</v>
+        <v>471.5162782942208</v>
       </c>
       <c r="L18" t="n">
-        <v>890.7448457388433</v>
+        <v>890.7448457388425</v>
       </c>
       <c r="M18" t="n">
-        <v>1399.321678384917</v>
+        <v>1399.321678384916</v>
       </c>
       <c r="N18" t="n">
-        <v>1935.767671389284</v>
+        <v>1734.099634677028</v>
       </c>
       <c r="O18" t="n">
         <v>2202.623119845759</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.1176225257113</v>
+        <v>870.9750789290533</v>
       </c>
       <c r="C19" t="n">
-        <v>615.7812512397479</v>
+        <v>733.968393326615</v>
       </c>
       <c r="D19" t="n">
         <v>615.7812512397479</v>
@@ -5668,55 +5668,55 @@
         <v>136.8230742268317</v>
       </c>
       <c r="I19" t="n">
-        <v>77.65036785968283</v>
+        <v>77.65036785968275</v>
       </c>
       <c r="J19" t="n">
-        <v>168.4071230818306</v>
+        <v>168.4071230818304</v>
       </c>
       <c r="K19" t="n">
-        <v>427.2534683198628</v>
+        <v>427.2534683198624</v>
       </c>
       <c r="L19" t="n">
-        <v>805.2625332395726</v>
+        <v>805.2625332395719</v>
       </c>
       <c r="M19" t="n">
         <v>1212.508073798821</v>
       </c>
       <c r="N19" t="n">
-        <v>1616.248945824027</v>
+        <v>1616.248945824026</v>
       </c>
       <c r="O19" t="n">
-        <v>1975.541626556801</v>
+        <v>1975.5416265568</v>
       </c>
       <c r="P19" t="n">
-        <v>2263.974493698026</v>
+        <v>2263.974493698025</v>
       </c>
       <c r="Q19" t="n">
-        <v>2389.863067465448</v>
+        <v>2389.863067465447</v>
       </c>
       <c r="R19" t="n">
-        <v>2341.267216338281</v>
+        <v>2341.267216338279</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.117358716236</v>
+        <v>2185.117358716235</v>
       </c>
       <c r="T19" t="n">
-        <v>1996.164470520495</v>
+        <v>1996.164470520494</v>
       </c>
       <c r="U19" t="n">
-        <v>1739.002389013003</v>
+        <v>1739.002389013001</v>
       </c>
       <c r="V19" t="n">
-        <v>1516.247398132585</v>
+        <v>1516.247398132582</v>
       </c>
       <c r="W19" t="n">
-        <v>1258.759725421093</v>
+        <v>1258.75972542109</v>
       </c>
       <c r="X19" t="n">
-        <v>1062.699671848544</v>
+        <v>1062.699671848542</v>
       </c>
       <c r="Y19" t="n">
-        <v>873.8365900304824</v>
+        <v>873.8365900304801</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2036.10073260317</v>
+        <v>1746.688589748455</v>
       </c>
       <c r="C20" t="n">
-        <v>1699.067712988227</v>
+        <v>1454.176393248926</v>
       </c>
       <c r="D20" t="n">
-        <v>1372.731511706946</v>
+        <v>1454.176393248926</v>
       </c>
       <c r="E20" t="n">
-        <v>1018.87275643417</v>
+        <v>1100.31763797615</v>
       </c>
       <c r="F20" t="n">
-        <v>639.8163489700311</v>
+        <v>721.2612305120114</v>
       </c>
       <c r="G20" t="n">
-        <v>257.1347499261491</v>
+        <v>338.5796314681294</v>
       </c>
       <c r="H20" t="n">
-        <v>77.65036785968279</v>
+        <v>77.65036785968276</v>
       </c>
       <c r="I20" t="n">
-        <v>77.65036785968279</v>
+        <v>77.65036785968276</v>
       </c>
       <c r="J20" t="n">
-        <v>304.9071038490503</v>
+        <v>304.9071038490501</v>
       </c>
       <c r="K20" t="n">
-        <v>696.2445591115661</v>
+        <v>696.2445591115656</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.635038647558</v>
+        <v>1218.635038647556</v>
       </c>
       <c r="M20" t="n">
-        <v>1831.564538444995</v>
+        <v>1831.564538444994</v>
       </c>
       <c r="N20" t="n">
-        <v>2459.025686726051</v>
+        <v>2459.02568672605</v>
       </c>
       <c r="O20" t="n">
-        <v>3038.184195097027</v>
+        <v>3038.184195097026</v>
       </c>
       <c r="P20" t="n">
-        <v>3497.981581827047</v>
+        <v>3497.981581827045</v>
       </c>
       <c r="Q20" t="n">
-        <v>3795.097523932606</v>
+        <v>3795.097523932604</v>
       </c>
       <c r="R20" t="n">
-        <v>3882.51839298414</v>
+        <v>3882.518392984138</v>
       </c>
       <c r="S20" t="n">
-        <v>3882.51839298414</v>
+        <v>3814.670321227267</v>
       </c>
       <c r="T20" t="n">
-        <v>3710.489718890526</v>
+        <v>3642.641647133653</v>
       </c>
       <c r="U20" t="n">
-        <v>3710.489718890526</v>
+        <v>3421.07757603581</v>
       </c>
       <c r="V20" t="n">
-        <v>3411.356328872423</v>
+        <v>3121.944186017708</v>
       </c>
       <c r="W20" t="n">
-        <v>3090.517170927777</v>
+        <v>2801.105028073062</v>
       </c>
       <c r="X20" t="n">
-        <v>2748.980909992166</v>
+        <v>2459.568767137451</v>
       </c>
       <c r="Y20" t="n">
-        <v>2390.771075341823</v>
+        <v>2101.358932487108</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>88.15879370038948</v>
       </c>
       <c r="I21" t="n">
-        <v>77.65036785968279</v>
+        <v>77.65036785968276</v>
       </c>
       <c r="J21" t="n">
-        <v>194.1850759934569</v>
+        <v>194.1850759934568</v>
       </c>
       <c r="K21" t="n">
-        <v>471.5162782942211</v>
+        <v>471.5162782942208</v>
       </c>
       <c r="L21" t="n">
-        <v>890.744845738843</v>
+        <v>890.7448457388425</v>
       </c>
       <c r="M21" t="n">
-        <v>1399.321678384917</v>
+        <v>1399.321678384916</v>
       </c>
       <c r="N21" t="n">
-        <v>1935.767671389283</v>
+        <v>1734.099634677028</v>
       </c>
       <c r="O21" t="n">
-        <v>2404.291156558014</v>
+        <v>2202.623119845759</v>
       </c>
       <c r="P21" t="n">
         <v>2559.321456210482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.9750789290531</v>
+        <v>758.5273402197428</v>
       </c>
       <c r="C22" t="n">
-        <v>733.9683933266148</v>
+        <v>621.5206546173044</v>
       </c>
       <c r="D22" t="n">
-        <v>615.7812512397477</v>
+        <v>503.3335125304373</v>
       </c>
       <c r="E22" t="n">
-        <v>499.7976549828232</v>
+        <v>387.3499162735128</v>
       </c>
       <c r="F22" t="n">
-        <v>384.8372048103815</v>
+        <v>272.3894661010711</v>
       </c>
       <c r="G22" t="n">
-        <v>249.2708129361417</v>
+        <v>136.8230742268317</v>
       </c>
       <c r="H22" t="n">
         <v>136.8230742268317</v>
       </c>
       <c r="I22" t="n">
-        <v>77.65036785968279</v>
+        <v>77.65036785968276</v>
       </c>
       <c r="J22" t="n">
-        <v>168.4071230818304</v>
+        <v>168.4071230818302</v>
       </c>
       <c r="K22" t="n">
-        <v>427.2534683198623</v>
+        <v>427.2534683198622</v>
       </c>
       <c r="L22" t="n">
-        <v>805.262533239572</v>
+        <v>805.2625332395718</v>
       </c>
       <c r="M22" t="n">
-        <v>1212.508073798821</v>
+        <v>1212.50807379882</v>
       </c>
       <c r="N22" t="n">
-        <v>1616.248945824026</v>
+        <v>1616.248945824025</v>
       </c>
       <c r="O22" t="n">
-        <v>1975.541626556801</v>
+        <v>1975.5416265568</v>
       </c>
       <c r="P22" t="n">
-        <v>2263.974493698026</v>
+        <v>2263.974493698025</v>
       </c>
       <c r="Q22" t="n">
-        <v>2389.863067465448</v>
+        <v>2389.863067465446</v>
       </c>
       <c r="R22" t="n">
-        <v>2341.26721633828</v>
+        <v>2375.676934032313</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.117358716236</v>
+        <v>2219.527076410268</v>
       </c>
       <c r="T22" t="n">
-        <v>1996.164470520495</v>
+        <v>2030.574188214527</v>
       </c>
       <c r="U22" t="n">
-        <v>1739.002389013002</v>
+        <v>1773.412106707034</v>
       </c>
       <c r="V22" t="n">
-        <v>1516.247398132584</v>
+        <v>1550.657115826616</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.617181824435</v>
+        <v>1293.169443115124</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.557128251886</v>
+        <v>1097.109389542575</v>
       </c>
       <c r="Y22" t="n">
-        <v>1020.694046433824</v>
+        <v>908.2463077245138</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5990,31 +5990,31 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6069,22 +6069,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1446.618909418616</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2024.474257345018</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q24" t="n">
         <v>2530.879212293269</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
         <v>501.6849958039802</v>
@@ -6151,10 +6151,10 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
@@ -6227,25 +6227,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
@@ -6306,25 +6306,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6403,13 +6403,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127668</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050961</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746738</v>
@@ -6479,34 +6479,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6549,7 +6549,7 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
         <v>2049.239235375538</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749443</v>
@@ -6616,16 +6616,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,34 +6634,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6789,7 +6789,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
         <v>2555.644190323788</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502118</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477735</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609066</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039822</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315406</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749466</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
         <v>2333.272818966196</v>
@@ -6895,13 +6895,13 @@
         <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050961</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746738</v>
@@ -6959,28 +6959,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7020,22 +7020,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477734</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609065</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039821</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>725.1782574796666</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7172,25 +7172,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7199,19 +7199,19 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
         <v>2834.342818501802</v>
@@ -7254,25 +7254,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502097</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040894</v>
@@ -7345,10 +7345,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7357,25 +7357,25 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511619</v>
@@ -7418,19 +7418,19 @@
         <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746736</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755809</v>
@@ -7454,7 +7454,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>84.98040897511619</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511619</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7790385694436</v>
+        <v>808.1559021931415</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.697503179733</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502122</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147774</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609043</v>
+        <v>617.668592060907</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315381</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G43" t="n">
         <v>251.294345074944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897929</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7673,25 +7673,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
@@ -7807,10 +7807,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7825,31 +7825,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>175.8250599726919</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.96845136975682</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>250.9586327390783</v>
       </c>
       <c r="V11" t="n">
-        <v>176.8022842723792</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.36819711013818</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8209303077114</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.933463674431</v>
       </c>
       <c r="I13" t="n">
-        <v>90.19118165569137</v>
+        <v>90.19118165569144</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.72009496810979</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>247.918175116308</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.96845136975691</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9586327390783</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>175.9988126811622</v>
+        <v>123.1736383198664</v>
       </c>
     </row>
     <row r="15">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>25.25062332581737</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>142.933463674431</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>89.88779132679164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>49.51768778752594</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>367.1484541527304</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>145.3888818393108</v>
       </c>
       <c r="C19" t="n">
-        <v>28.38361117330921</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>44.07561488425961</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>80.63043272656043</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.16959103930242</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3484303868643</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>111.323261322217</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>34.06562051709336</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>145.3888818393097</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.631974555493798e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.948752353404416e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.446132268436486e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-3.038849172298796e-12</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.918465386552271e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-2.223998762929114e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-2.785327524179593e-12</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>785010.3414120991</v>
+        <v>785010.3414120986</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785010.341412099</v>
+        <v>785010.3414120985</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842992.3898623702</v>
+        <v>842992.3898623696</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842992.38986237</v>
+        <v>842992.3898623699</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877342.4574828055</v>
+        <v>877342.4574828057</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877342.4574828055</v>
+        <v>877342.4574828056</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>877342.4574828055</v>
+        <v>877342.4574828057</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049985</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>513174.494857861</v>
+        <v>513174.4948578604</v>
       </c>
       <c r="F2" t="n">
         <v>513174.4948578607</v>
       </c>
       <c r="G2" t="n">
-        <v>551829.1938247086</v>
+        <v>551829.1938247082</v>
       </c>
       <c r="H2" t="n">
-        <v>551829.1938247083</v>
+        <v>551829.1938247085</v>
       </c>
       <c r="I2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="J2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="L2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="M2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="N2" t="n">
         <v>574729.238904999</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>574729.2389049988</v>
-      </c>
-      <c r="L2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="M2" t="n">
-        <v>574729.238904999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="O2" t="n">
-        <v>574729.2389049989</v>
       </c>
       <c r="P2" t="n">
         <v>574729.2389049991</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352519.4174594985</v>
+        <v>352519.417459501</v>
       </c>
       <c r="C3" t="n">
-        <v>44199.45183237494</v>
+        <v>44199.45183237254</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>840629.2562954117</v>
+        <v>840629.2562954102</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177115</v>
+        <v>25288.16188177114</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80647.46340660755</v>
+        <v>80647.46340660799</v>
       </c>
       <c r="J3" t="n">
-        <v>5859.294146692275</v>
+        <v>5859.294146692662</v>
       </c>
       <c r="K3" t="n">
-        <v>7052.104593603532</v>
+        <v>7052.104593603268</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194629</v>
+        <v>41060.1990219462</v>
       </c>
       <c r="M3" t="n">
-        <v>213945.8550475336</v>
+        <v>213945.8550475332</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346897.4782977603</v>
+        <v>346897.4782977595</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26430,34 +26430,34 @@
         <v>15941.89455935831</v>
       </c>
       <c r="G4" t="n">
-        <v>47538.26124854592</v>
+        <v>47538.26124854591</v>
       </c>
       <c r="H4" t="n">
-        <v>47538.26124854592</v>
+        <v>47538.26124854591</v>
       </c>
       <c r="I4" t="n">
+        <v>47059.20276613309</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47059.2027661331</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47059.2027661331</v>
+      </c>
+      <c r="L4" t="n">
         <v>47059.20276613312</v>
       </c>
-      <c r="J4" t="n">
-        <v>47059.20276613311</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47059.20276613312</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>47059.20276613308</v>
+      </c>
+      <c r="N4" t="n">
         <v>47059.20276613322</v>
       </c>
-      <c r="M4" t="n">
-        <v>47059.20276613321</v>
-      </c>
-      <c r="N4" t="n">
-        <v>47059.20276613311</v>
-      </c>
       <c r="O4" t="n">
-        <v>47059.20276613311</v>
+        <v>47059.20276613322</v>
       </c>
       <c r="P4" t="n">
-        <v>47059.20276613309</v>
+        <v>47059.20276613322</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42794.49551795612</v>
+        <v>42794.49551795626</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,16 +26476,16 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>85248.19982503056</v>
+        <v>85248.19982503046</v>
       </c>
       <c r="F5" t="n">
-        <v>85248.19982503053</v>
+        <v>85248.19982503046</v>
       </c>
       <c r="G5" t="n">
-        <v>87905.63792657881</v>
+        <v>87905.63792657873</v>
       </c>
       <c r="H5" t="n">
-        <v>87905.63792657878</v>
+        <v>87905.63792657875</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26494,22 +26494,22 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="O5" t="n">
-        <v>95106.43410215525</v>
-      </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167482.1523702164</v>
+        <v>-167482.1523702182</v>
       </c>
       <c r="C6" t="n">
-        <v>151966.5616347105</v>
+        <v>151966.5616347131</v>
       </c>
       <c r="D6" t="n">
         <v>131392.8590878035</v>
       </c>
       <c r="E6" t="n">
-        <v>-428644.8558219396</v>
+        <v>-428864.6941935355</v>
       </c>
       <c r="F6" t="n">
-        <v>411984.4004734724</v>
+        <v>411764.5621018748</v>
       </c>
       <c r="G6" t="n">
-        <v>391097.1327678126</v>
+        <v>391015.3468925257</v>
       </c>
       <c r="H6" t="n">
-        <v>416385.294649584</v>
+        <v>416303.5087742971</v>
       </c>
       <c r="I6" t="n">
-        <v>351916.1386301028</v>
+        <v>351916.1386301026</v>
       </c>
       <c r="J6" t="n">
-        <v>426704.3078900183</v>
+        <v>426704.3078900177</v>
       </c>
       <c r="K6" t="n">
-        <v>425511.4974431068</v>
+        <v>425511.4974431072</v>
       </c>
       <c r="L6" t="n">
-        <v>391503.4030147641</v>
+        <v>391503.4030147642</v>
       </c>
       <c r="M6" t="n">
-        <v>218617.746989177</v>
+        <v>218617.7469891773</v>
       </c>
       <c r="N6" t="n">
-        <v>432563.6020367106</v>
+        <v>432563.6020367104</v>
       </c>
       <c r="O6" t="n">
-        <v>432563.6020367106</v>
+        <v>432563.6020367104</v>
       </c>
       <c r="P6" t="n">
-        <v>432563.6020367107</v>
+        <v>432563.6020367105</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221407</v>
       </c>
-      <c r="M2" t="n">
-        <v>31.61020235221405</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.042724412922</v>
+        <v>358.0427244129241</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26744,16 +26744,16 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1203.390837232643</v>
+        <v>1203.390837232641</v>
       </c>
       <c r="F3" t="n">
-        <v>1203.390837232642</v>
+        <v>1203.390837232641</v>
       </c>
       <c r="G3" t="n">
-        <v>1203.390837232642</v>
+        <v>1203.390837232641</v>
       </c>
       <c r="H3" t="n">
-        <v>1203.390837232642</v>
+        <v>1203.390837232641</v>
       </c>
       <c r="I3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,16 +26796,16 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>970.6295982460356</v>
+        <v>970.6295982460342</v>
       </c>
       <c r="F4" t="n">
-        <v>970.6295982460351</v>
+        <v>970.6295982460342</v>
       </c>
       <c r="G4" t="n">
-        <v>970.6295982460354</v>
+        <v>970.6295982460342</v>
       </c>
       <c r="H4" t="n">
-        <v>970.6295982460349</v>
+        <v>970.6295982460346</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26814,13 +26814,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26920,28 +26920,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221405</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.042724412922</v>
+        <v>358.0427244129241</v>
       </c>
       <c r="C3" t="n">
-        <v>38.81721885464606</v>
+        <v>38.81721885464395</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>727.2750860341403</v>
+        <v>727.2750860341389</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.178137899225063e-14</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>74.76903338748093</v>
+        <v>74.76903338748139</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="C4" t="n">
-        <v>27.40086022195319</v>
+        <v>27.40086022195171</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>858.5169381211119</v>
+        <v>858.5169381211106</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.62551394291791</v>
+        <v>91.62551394291825</v>
       </c>
       <c r="J4" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="K4" t="n">
-        <v>27.40086022195274</v>
+        <v>27.40086022195171</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>858.5169381211119</v>
+        <v>858.5169381211106</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="K4" t="n">
-        <v>27.40086022195319</v>
+        <v>27.40086022195171</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>858.5169381211119</v>
+        <v>858.5169381211106</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,19 +27394,19 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.7338772860432</v>
+        <v>324.7338772860431</v>
       </c>
       <c r="I2" t="n">
-        <v>154.9846649154142</v>
+        <v>154.9846649154139</v>
       </c>
       <c r="J2" t="n">
-        <v>36.48722030989177</v>
+        <v>58.88136711506249</v>
       </c>
       <c r="K2" t="n">
-        <v>32.68490404700828</v>
+        <v>24.06151312844302</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.623390918560006</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,16 +27418,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.25011606086272</v>
+        <v>24.2501160608615</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.87016723748093</v>
+        <v>44.47602043230711</v>
       </c>
       <c r="R2" t="n">
-        <v>125.169854246682</v>
+        <v>125.1698542466815</v>
       </c>
       <c r="S2" t="n">
-        <v>176.220477294549</v>
+        <v>176.2204772945488</v>
       </c>
       <c r="T2" t="n">
         <v>216.7950172983321</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>151.4027078981937</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,16 +27473,16 @@
         <v>136.5733875295678</v>
       </c>
       <c r="H3" t="n">
-        <v>104.7976133010507</v>
+        <v>104.7976133010506</v>
       </c>
       <c r="I3" t="n">
-        <v>50.61280501896594</v>
+        <v>73.00695182413722</v>
       </c>
       <c r="J3" t="n">
-        <v>31.68311828999758</v>
+        <v>54.07726509516858</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.48239194878704</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.28125509864553</v>
+        <v>21.95063739782008</v>
       </c>
       <c r="R3" t="n">
-        <v>97.86391144708352</v>
+        <v>97.86391144708324</v>
       </c>
       <c r="S3" t="n">
-        <v>157.3783509350763</v>
+        <v>157.3783509350762</v>
       </c>
       <c r="T3" t="n">
         <v>197.0605658293926</v>
@@ -27515,13 +27515,13 @@
         <v>225.8907156577089</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>210.4064403442524</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>229.3008363557467</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>183.3788383983046</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,37 +27552,37 @@
         <v>167.3453285439437</v>
       </c>
       <c r="H4" t="n">
-        <v>156.4867498111144</v>
+        <v>156.4867498111143</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0339940689313</v>
+        <v>136.0339940689312</v>
       </c>
       <c r="J4" t="n">
-        <v>81.34790885317818</v>
+        <v>81.34790885317791</v>
       </c>
       <c r="K4" t="n">
-        <v>54.00037262959863</v>
+        <v>54.00037262959819</v>
       </c>
       <c r="L4" t="n">
-        <v>38.89400882141982</v>
+        <v>38.89400882141925</v>
       </c>
       <c r="M4" t="n">
-        <v>37.71708399593273</v>
+        <v>37.71708399593213</v>
       </c>
       <c r="N4" t="n">
-        <v>28.88336118584435</v>
+        <v>28.88336118584377</v>
       </c>
       <c r="O4" t="n">
-        <v>47.19673059656226</v>
+        <v>47.19673059656172</v>
       </c>
       <c r="P4" t="n">
-        <v>59.63947280997529</v>
+        <v>59.63947280997483</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.44055024309463</v>
+        <v>97.44055024309431</v>
       </c>
       <c r="R4" t="n">
-        <v>148.2625829354267</v>
+        <v>148.2625829354265</v>
       </c>
       <c r="S4" t="n">
         <v>212.7646652058317</v>
@@ -27622,25 +27622,25 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2440082093026</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>357.0810387145868</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>363.9123136306534</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>113.7505703439305</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,10 +27655,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.0851934238076</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>97.65005853751413</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>20.3372734007017</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,13 +27737,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
         <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>111.9680509922885</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27865,7 +27865,7 @@
         <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>332.086736867175</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>150.1747103487718</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>153.2419349191747</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
@@ -27950,10 +27950,10 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,22 +27974,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>40.54833922112497</v>
       </c>
       <c r="T9" t="n">
-        <v>188.6402155916929</v>
+        <v>83.92423484016754</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28035,10 +28035,10 @@
         <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>25.63772821752104</v>
       </c>
       <c r="L10" t="n">
-        <v>3.613446413741165</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
         <v>4.341129883412066</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
-        <v>23.96845136975691</v>
+        <v>23.96845136975699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I20" t="n">
-        <v>23.96845136975693</v>
+        <v>23.96845136975699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.439367736333354</v>
+        <v>1.439367736333362</v>
       </c>
       <c r="H2" t="n">
-        <v>14.74092482972396</v>
+        <v>14.74092482972405</v>
       </c>
       <c r="I2" t="n">
-        <v>55.49122465499167</v>
+        <v>55.491224654992</v>
       </c>
       <c r="J2" t="n">
-        <v>122.1645374116231</v>
+        <v>122.1645374116238</v>
       </c>
       <c r="K2" t="n">
-        <v>183.092973690614</v>
+        <v>183.0929736906151</v>
       </c>
       <c r="L2" t="n">
-        <v>227.1430240514259</v>
+        <v>227.1430240514272</v>
       </c>
       <c r="M2" t="n">
-        <v>252.7403800324442</v>
+        <v>252.7403800324456</v>
       </c>
       <c r="N2" t="n">
-        <v>251.8072104017623</v>
+        <v>251.8072104017638</v>
       </c>
       <c r="O2" t="n">
-        <v>242.5172706851365</v>
+        <v>242.517270685138</v>
       </c>
       <c r="P2" t="n">
-        <v>206.9828796944068</v>
+        <v>206.982879694408</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.4355226369686</v>
+        <v>155.4355226369695</v>
       </c>
       <c r="R2" t="n">
-        <v>90.4156835674501</v>
+        <v>90.41568356745064</v>
       </c>
       <c r="S2" t="n">
-        <v>32.79959229169633</v>
+        <v>32.79959229169652</v>
       </c>
       <c r="T2" t="n">
-        <v>6.300832265799259</v>
+        <v>6.300832265799296</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1151494189066683</v>
+        <v>0.1151494189066689</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7701296336428888</v>
+        <v>0.7701296336428933</v>
       </c>
       <c r="H3" t="n">
-        <v>7.437830935445795</v>
+        <v>7.43783093544584</v>
       </c>
       <c r="I3" t="n">
-        <v>26.51542817586262</v>
+        <v>26.51542817586278</v>
       </c>
       <c r="J3" t="n">
-        <v>72.76036157149768</v>
+        <v>72.76036157149811</v>
       </c>
       <c r="K3" t="n">
-        <v>124.3590470255712</v>
+        <v>124.359047025572</v>
       </c>
       <c r="L3" t="n">
-        <v>160.9485265850456</v>
+        <v>160.9485265850471</v>
       </c>
       <c r="M3" t="n">
-        <v>164.5281807271897</v>
+        <v>164.5281807271912</v>
       </c>
       <c r="N3" t="n">
-        <v>139.7444698802237</v>
+        <v>153.7358588885062</v>
       </c>
       <c r="O3" t="n">
-        <v>164.9903912496159</v>
+        <v>164.0855772372871</v>
       </c>
       <c r="P3" t="n">
-        <v>147.0609824102811</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.30637218220456</v>
+        <v>98.30637218220514</v>
       </c>
       <c r="R3" t="n">
-        <v>47.81559251688043</v>
+        <v>47.81559251688071</v>
       </c>
       <c r="S3" t="n">
-        <v>14.30482016876154</v>
+        <v>14.30482016876163</v>
       </c>
       <c r="T3" t="n">
-        <v>3.104162865429011</v>
+        <v>3.104162865429029</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05066642326597955</v>
+        <v>0.05066642326597984</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6456508145151051</v>
+        <v>0.645650814515109</v>
       </c>
       <c r="H4" t="n">
-        <v>5.740422696325211</v>
+        <v>5.740422696325245</v>
       </c>
       <c r="I4" t="n">
-        <v>19.41648085832698</v>
+        <v>19.4164808583271</v>
       </c>
       <c r="J4" t="n">
-        <v>45.64751258621793</v>
+        <v>45.6475125862182</v>
       </c>
       <c r="K4" t="n">
-        <v>75.01288554093675</v>
+        <v>75.01288554093719</v>
       </c>
       <c r="L4" t="n">
-        <v>95.99066745981847</v>
+        <v>95.99066745981904</v>
       </c>
       <c r="M4" t="n">
-        <v>101.2086999516723</v>
+        <v>101.2086999516729</v>
       </c>
       <c r="N4" t="n">
-        <v>98.80218327938884</v>
+        <v>98.80218327938942</v>
       </c>
       <c r="O4" t="n">
-        <v>91.25980785528053</v>
+        <v>91.25980785528107</v>
       </c>
       <c r="P4" t="n">
-        <v>78.08853123917233</v>
+        <v>78.08853123917278</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.06445138635122</v>
+        <v>54.06445138635154</v>
       </c>
       <c r="R4" t="n">
-        <v>29.03080844174281</v>
+        <v>29.03080844174298</v>
       </c>
       <c r="S4" t="n">
-        <v>11.25193283114051</v>
+        <v>11.25193283114058</v>
       </c>
       <c r="T4" t="n">
-        <v>2.758689843837267</v>
+        <v>2.758689843837283</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03521731715536941</v>
+        <v>0.03521731715536962</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,13 +31370,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>181.1367191104579</v>
+        <v>153.0991627102423</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.837752109477957</v>
+        <v>4.83775210947795</v>
       </c>
       <c r="H11" t="n">
-        <v>49.54462879119113</v>
+        <v>49.54462879119107</v>
       </c>
       <c r="I11" t="n">
-        <v>186.5074382006491</v>
+        <v>186.5074382006489</v>
       </c>
       <c r="J11" t="n">
-        <v>410.5981631018051</v>
+        <v>410.5981631018046</v>
       </c>
       <c r="K11" t="n">
-        <v>615.380209896007</v>
+        <v>615.3802098960064</v>
       </c>
       <c r="L11" t="n">
-        <v>763.4335660164433</v>
+        <v>763.4335660164423</v>
       </c>
       <c r="M11" t="n">
-        <v>849.4669400933718</v>
+        <v>849.4669400933708</v>
       </c>
       <c r="N11" t="n">
-        <v>863.2122032744261</v>
+        <v>863.2122032744252</v>
       </c>
       <c r="O11" t="n">
-        <v>815.1068057358046</v>
+        <v>815.1068057358037</v>
       </c>
       <c r="P11" t="n">
-        <v>695.6748005330675</v>
+        <v>695.6748005330667</v>
       </c>
       <c r="Q11" t="n">
-        <v>522.422803112388</v>
+        <v>522.4228031123874</v>
       </c>
       <c r="R11" t="n">
-        <v>303.889445946995</v>
+        <v>303.8894459469946</v>
       </c>
       <c r="S11" t="n">
-        <v>110.240276194729</v>
+        <v>110.2402761947289</v>
       </c>
       <c r="T11" t="n">
-        <v>21.17725985923976</v>
+        <v>21.17725985923974</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3870201687582364</v>
+        <v>0.387020168758236</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.588425574424929</v>
+        <v>2.588425574424926</v>
       </c>
       <c r="H12" t="n">
-        <v>24.99874173194603</v>
+        <v>24.998741731946</v>
       </c>
       <c r="I12" t="n">
-        <v>89.11903841770042</v>
+        <v>89.11903841770032</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.5494530644182</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>214.2688789627535</v>
       </c>
       <c r="L12" t="n">
-        <v>562.0175792188866</v>
+        <v>562.0175792188859</v>
       </c>
       <c r="M12" t="n">
-        <v>655.8480062917901</v>
+        <v>655.8480062917894</v>
       </c>
       <c r="N12" t="n">
-        <v>673.2063514816837</v>
+        <v>673.206351481683</v>
       </c>
       <c r="O12" t="n">
-        <v>615.852290069426</v>
+        <v>615.8522900694253</v>
       </c>
       <c r="P12" t="n">
-        <v>494.2757572776868</v>
+        <v>494.2757572776862</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.4102540265928</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>149.3902904095355</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.07886977056828</v>
+        <v>48.07886977056823</v>
       </c>
       <c r="T12" t="n">
-        <v>10.43317150393206</v>
+        <v>10.43317150393205</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1702911562121665</v>
+        <v>0.1702911562121663</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.170049050747388</v>
+        <v>2.170049050747386</v>
       </c>
       <c r="H13" t="n">
-        <v>19.29370883300861</v>
+        <v>19.29370883300859</v>
       </c>
       <c r="I13" t="n">
-        <v>65.25929327156692</v>
+        <v>65.25929327156685</v>
       </c>
       <c r="J13" t="n">
-        <v>153.4224678878403</v>
+        <v>153.4224678878402</v>
       </c>
       <c r="K13" t="n">
-        <v>252.1202442595601</v>
+        <v>252.1202442595598</v>
       </c>
       <c r="L13" t="n">
-        <v>322.6271106902072</v>
+        <v>322.6271106902068</v>
       </c>
       <c r="M13" t="n">
-        <v>340.1650525639746</v>
+        <v>340.1650525639742</v>
       </c>
       <c r="N13" t="n">
-        <v>332.0766879202801</v>
+        <v>332.0766879202797</v>
       </c>
       <c r="O13" t="n">
-        <v>306.7265694638218</v>
+        <v>306.7265694638215</v>
       </c>
       <c r="P13" t="n">
-        <v>262.4575688285749</v>
+        <v>262.4575688285746</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.712016422129</v>
+        <v>181.7120164221288</v>
       </c>
       <c r="R13" t="n">
-        <v>97.57329640905979</v>
+        <v>97.57329640905969</v>
       </c>
       <c r="S13" t="n">
-        <v>37.81803663893401</v>
+        <v>37.81803663893397</v>
       </c>
       <c r="T13" t="n">
-        <v>9.272027762284292</v>
+        <v>9.272027762284281</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1183663118589486</v>
+        <v>0.1183663118589484</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.837752109477955</v>
+        <v>4.837752109477951</v>
       </c>
       <c r="H14" t="n">
-        <v>49.54462879119112</v>
+        <v>49.54462879119109</v>
       </c>
       <c r="I14" t="n">
-        <v>186.507438200649</v>
+        <v>186.5074382006489</v>
       </c>
       <c r="J14" t="n">
-        <v>410.5981631018049</v>
+        <v>410.5981631018047</v>
       </c>
       <c r="K14" t="n">
-        <v>615.3802098960068</v>
+        <v>615.3802098960065</v>
       </c>
       <c r="L14" t="n">
-        <v>763.4335660164429</v>
+        <v>763.4335660164425</v>
       </c>
       <c r="M14" t="n">
-        <v>849.4669400933715</v>
+        <v>849.466940093371</v>
       </c>
       <c r="N14" t="n">
-        <v>863.2122032744257</v>
+        <v>863.2122032744253</v>
       </c>
       <c r="O14" t="n">
-        <v>815.1068057358043</v>
+        <v>815.1068057358038</v>
       </c>
       <c r="P14" t="n">
-        <v>695.6748005330672</v>
+        <v>695.6748005330668</v>
       </c>
       <c r="Q14" t="n">
-        <v>522.4228031123878</v>
+        <v>522.4228031123876</v>
       </c>
       <c r="R14" t="n">
-        <v>303.8894459469948</v>
+        <v>303.8894459469947</v>
       </c>
       <c r="S14" t="n">
-        <v>110.240276194729</v>
+        <v>110.2402761947289</v>
       </c>
       <c r="T14" t="n">
-        <v>21.17725985923976</v>
+        <v>21.17725985923974</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3870201687582362</v>
+        <v>0.3870201687582361</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.588425574424928</v>
+        <v>2.588425574424927</v>
       </c>
       <c r="H15" t="n">
-        <v>24.99874173194602</v>
+        <v>24.99874173194601</v>
       </c>
       <c r="I15" t="n">
-        <v>89.11903841770039</v>
+        <v>89.11903841770034</v>
       </c>
       <c r="J15" t="n">
-        <v>244.5494530644184</v>
+        <v>244.5494530644182</v>
       </c>
       <c r="K15" t="n">
-        <v>417.9739665508886</v>
+        <v>417.9739665508883</v>
       </c>
       <c r="L15" t="n">
-        <v>562.0175792188863</v>
+        <v>562.017579218886</v>
       </c>
       <c r="M15" t="n">
-        <v>655.8480062917898</v>
+        <v>655.8480062917895</v>
       </c>
       <c r="N15" t="n">
-        <v>673.2063514816834</v>
+        <v>469.5012638935475</v>
       </c>
       <c r="O15" t="n">
-        <v>615.8522900694257</v>
+        <v>615.8522900694254</v>
       </c>
       <c r="P15" t="n">
-        <v>290.5706696895489</v>
+        <v>494.2757572776863</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>48.07886977056826</v>
+        <v>48.07886977056824</v>
       </c>
       <c r="T15" t="n">
         <v>10.43317150393205</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1702911562121664</v>
+        <v>0.1702911562121663</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.170049050747387</v>
+        <v>2.170049050747386</v>
       </c>
       <c r="H16" t="n">
-        <v>19.2937088330086</v>
+        <v>19.29370883300859</v>
       </c>
       <c r="I16" t="n">
-        <v>65.2592932715669</v>
+        <v>65.25929327156686</v>
       </c>
       <c r="J16" t="n">
-        <v>153.4224678878403</v>
+        <v>153.4224678878402</v>
       </c>
       <c r="K16" t="n">
-        <v>252.12024425956</v>
+        <v>252.1202442595599</v>
       </c>
       <c r="L16" t="n">
-        <v>322.627110690207</v>
+        <v>322.6271106902068</v>
       </c>
       <c r="M16" t="n">
-        <v>340.1650525639745</v>
+        <v>340.1650525639743</v>
       </c>
       <c r="N16" t="n">
-        <v>332.0766879202799</v>
+        <v>332.0766879202798</v>
       </c>
       <c r="O16" t="n">
-        <v>306.7265694638217</v>
+        <v>306.7265694638215</v>
       </c>
       <c r="P16" t="n">
-        <v>262.4575688285748</v>
+        <v>262.4575688285747</v>
       </c>
       <c r="Q16" t="n">
-        <v>181.712016422129</v>
+        <v>181.7120164221288</v>
       </c>
       <c r="R16" t="n">
-        <v>97.57329640905976</v>
+        <v>97.57329640905971</v>
       </c>
       <c r="S16" t="n">
-        <v>37.818036638934</v>
+        <v>37.81803663893398</v>
       </c>
       <c r="T16" t="n">
-        <v>9.272027762284289</v>
+        <v>9.272027762284283</v>
       </c>
       <c r="U16" t="n">
         <v>0.1183663118589485</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.837752109477955</v>
+        <v>4.837752109477951</v>
       </c>
       <c r="H17" t="n">
-        <v>49.54462879119112</v>
+        <v>49.54462879119109</v>
       </c>
       <c r="I17" t="n">
-        <v>186.507438200649</v>
+        <v>186.5074382006489</v>
       </c>
       <c r="J17" t="n">
-        <v>410.5981631018049</v>
+        <v>410.5981631018047</v>
       </c>
       <c r="K17" t="n">
-        <v>615.3802098960068</v>
+        <v>615.3802098960065</v>
       </c>
       <c r="L17" t="n">
-        <v>763.4335660164429</v>
+        <v>763.4335660164425</v>
       </c>
       <c r="M17" t="n">
-        <v>849.4669400933715</v>
+        <v>849.466940093371</v>
       </c>
       <c r="N17" t="n">
-        <v>863.2122032744257</v>
+        <v>863.2122032744253</v>
       </c>
       <c r="O17" t="n">
-        <v>815.1068057358043</v>
+        <v>815.1068057358038</v>
       </c>
       <c r="P17" t="n">
-        <v>695.6748005330672</v>
+        <v>695.6748005330668</v>
       </c>
       <c r="Q17" t="n">
-        <v>522.4228031123878</v>
+        <v>522.4228031123876</v>
       </c>
       <c r="R17" t="n">
-        <v>303.8894459469948</v>
+        <v>303.8894459469947</v>
       </c>
       <c r="S17" t="n">
-        <v>110.240276194729</v>
+        <v>110.2402761947289</v>
       </c>
       <c r="T17" t="n">
-        <v>21.17725985923976</v>
+        <v>21.17725985923974</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3870201687582362</v>
+        <v>0.3870201687582361</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.588425574424928</v>
+        <v>2.588425574424927</v>
       </c>
       <c r="H18" t="n">
-        <v>24.99874173194602</v>
+        <v>24.99874173194601</v>
       </c>
       <c r="I18" t="n">
-        <v>89.11903841770039</v>
+        <v>89.11903841770034</v>
       </c>
       <c r="J18" t="n">
-        <v>244.5494530644184</v>
+        <v>244.5494530644182</v>
       </c>
       <c r="K18" t="n">
-        <v>417.9739665508886</v>
+        <v>417.9739665508883</v>
       </c>
       <c r="L18" t="n">
-        <v>562.0175792188863</v>
+        <v>562.017579218886</v>
       </c>
       <c r="M18" t="n">
-        <v>655.8480062917898</v>
+        <v>655.8480062917895</v>
       </c>
       <c r="N18" t="n">
-        <v>673.2063514816834</v>
+        <v>469.5012638935475</v>
       </c>
       <c r="O18" t="n">
-        <v>412.147202481288</v>
+        <v>615.8522900694254</v>
       </c>
       <c r="P18" t="n">
-        <v>494.2757572776866</v>
+        <v>494.2757572776863</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>48.07886977056826</v>
+        <v>48.07886977056824</v>
       </c>
       <c r="T18" t="n">
         <v>10.43317150393205</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1702911562121664</v>
+        <v>0.1702911562121663</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.170049050747387</v>
+        <v>2.170049050747386</v>
       </c>
       <c r="H19" t="n">
-        <v>19.2937088330086</v>
+        <v>19.29370883300859</v>
       </c>
       <c r="I19" t="n">
-        <v>65.2592932715669</v>
+        <v>65.25929327156686</v>
       </c>
       <c r="J19" t="n">
-        <v>153.4224678878403</v>
+        <v>153.4224678878402</v>
       </c>
       <c r="K19" t="n">
-        <v>252.12024425956</v>
+        <v>252.1202442595599</v>
       </c>
       <c r="L19" t="n">
-        <v>322.627110690207</v>
+        <v>322.6271106902068</v>
       </c>
       <c r="M19" t="n">
-        <v>340.1650525639745</v>
+        <v>340.1650525639743</v>
       </c>
       <c r="N19" t="n">
-        <v>332.0766879202799</v>
+        <v>332.0766879202798</v>
       </c>
       <c r="O19" t="n">
-        <v>306.7265694638217</v>
+        <v>306.7265694638215</v>
       </c>
       <c r="P19" t="n">
-        <v>262.4575688285748</v>
+        <v>262.4575688285747</v>
       </c>
       <c r="Q19" t="n">
-        <v>181.712016422129</v>
+        <v>181.7120164221288</v>
       </c>
       <c r="R19" t="n">
-        <v>97.57329640905976</v>
+        <v>97.57329640905971</v>
       </c>
       <c r="S19" t="n">
-        <v>37.818036638934</v>
+        <v>37.81803663893398</v>
       </c>
       <c r="T19" t="n">
-        <v>9.272027762284289</v>
+        <v>9.272027762284283</v>
       </c>
       <c r="U19" t="n">
         <v>0.1183663118589485</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.837752109477954</v>
+        <v>4.837752109477951</v>
       </c>
       <c r="H20" t="n">
-        <v>49.5446287911911</v>
+        <v>49.54462879119109</v>
       </c>
       <c r="I20" t="n">
-        <v>186.507438200649</v>
+        <v>186.5074382006489</v>
       </c>
       <c r="J20" t="n">
-        <v>410.5981631018049</v>
+        <v>410.5981631018047</v>
       </c>
       <c r="K20" t="n">
-        <v>615.3802098960067</v>
+        <v>615.3802098960065</v>
       </c>
       <c r="L20" t="n">
-        <v>763.4335660164428</v>
+        <v>763.4335660164425</v>
       </c>
       <c r="M20" t="n">
-        <v>849.4669400933714</v>
+        <v>849.466940093371</v>
       </c>
       <c r="N20" t="n">
-        <v>863.2122032744256</v>
+        <v>863.2122032744253</v>
       </c>
       <c r="O20" t="n">
-        <v>815.1068057358042</v>
+        <v>815.1068057358038</v>
       </c>
       <c r="P20" t="n">
-        <v>695.6748005330671</v>
+        <v>695.6748005330668</v>
       </c>
       <c r="Q20" t="n">
-        <v>522.4228031123877</v>
+        <v>522.4228031123876</v>
       </c>
       <c r="R20" t="n">
-        <v>303.8894459469948</v>
+        <v>303.8894459469947</v>
       </c>
       <c r="S20" t="n">
-        <v>110.240276194729</v>
+        <v>110.2402761947289</v>
       </c>
       <c r="T20" t="n">
-        <v>21.17725985923975</v>
+        <v>21.17725985923974</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3870201687582362</v>
+        <v>0.3870201687582361</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.588425574424928</v>
+        <v>2.588425574424927</v>
       </c>
       <c r="H21" t="n">
-        <v>24.99874173194602</v>
+        <v>24.99874173194601</v>
       </c>
       <c r="I21" t="n">
-        <v>89.11903841770038</v>
+        <v>89.11903841770034</v>
       </c>
       <c r="J21" t="n">
-        <v>244.5494530644183</v>
+        <v>244.5494530644182</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9739665508885</v>
+        <v>417.9739665508883</v>
       </c>
       <c r="L21" t="n">
-        <v>562.0175792188862</v>
+        <v>562.017579218886</v>
       </c>
       <c r="M21" t="n">
-        <v>655.8480062917897</v>
+        <v>655.8480062917895</v>
       </c>
       <c r="N21" t="n">
-        <v>673.2063514816833</v>
+        <v>469.5012638935475</v>
       </c>
       <c r="O21" t="n">
-        <v>615.8522900694256</v>
+        <v>615.8522900694254</v>
       </c>
       <c r="P21" t="n">
-        <v>290.5706696895498</v>
+        <v>494.2757572776863</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>48.07886977056825</v>
+        <v>48.07886977056824</v>
       </c>
       <c r="T21" t="n">
         <v>10.43317150393205</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1702911562121664</v>
+        <v>0.1702911562121663</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.170049050747387</v>
+        <v>2.170049050747386</v>
       </c>
       <c r="H22" t="n">
-        <v>19.2937088330086</v>
+        <v>19.29370883300859</v>
       </c>
       <c r="I22" t="n">
-        <v>65.25929327156689</v>
+        <v>65.25929327156686</v>
       </c>
       <c r="J22" t="n">
         <v>153.4224678878402</v>
       </c>
       <c r="K22" t="n">
-        <v>252.12024425956</v>
+        <v>252.1202442595599</v>
       </c>
       <c r="L22" t="n">
-        <v>322.627110690207</v>
+        <v>322.6271106902068</v>
       </c>
       <c r="M22" t="n">
-        <v>340.1650525639744</v>
+        <v>340.1650525639743</v>
       </c>
       <c r="N22" t="n">
-        <v>332.0766879202799</v>
+        <v>332.0766879202798</v>
       </c>
       <c r="O22" t="n">
-        <v>306.7265694638216</v>
+        <v>306.7265694638215</v>
       </c>
       <c r="P22" t="n">
         <v>262.4575688285747</v>
       </c>
       <c r="Q22" t="n">
-        <v>181.7120164221289</v>
+        <v>181.7120164221288</v>
       </c>
       <c r="R22" t="n">
-        <v>97.57329640905975</v>
+        <v>97.57329640905971</v>
       </c>
       <c r="S22" t="n">
-        <v>37.81803663893399</v>
+        <v>37.81803663893398</v>
       </c>
       <c r="T22" t="n">
-        <v>9.272027762284287</v>
+        <v>9.272027762284283</v>
       </c>
       <c r="U22" t="n">
         <v>0.1183663118589485</v>
@@ -32789,13 +32789,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>224.608355801395</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>620.1357707814511</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
@@ -32804,10 +32804,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>170.6946332877214</v>
@@ -33026,10 +33026,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33269,10 +33269,10 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
@@ -33509,10 +33509,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O33" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33740,25 +33740,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>472.9693813169756</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33974,28 +33974,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>562.9326059093297</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>500.6267975705753</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
@@ -34232,7 +34232,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34454,22 +34454,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>591.0665301174799</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="N2" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="O2" t="n">
-        <v>12.41905926344981</v>
+        <v>12.41905926345123</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="M3" t="n">
-        <v>22.39414680517143</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="N3" t="n">
-        <v>8.402757796890391</v>
+        <v>22.39414680517292</v>
       </c>
       <c r="O3" t="n">
-        <v>22.39414680517143</v>
+        <v>21.48933279284269</v>
       </c>
       <c r="P3" t="n">
-        <v>13.08657499595088</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.5522585751188</v>
+        <v>229.5522585751183</v>
       </c>
       <c r="K11" t="n">
-        <v>395.2903588510265</v>
+        <v>395.2903588510258</v>
       </c>
       <c r="L11" t="n">
-        <v>527.667151046456</v>
+        <v>527.667151046455</v>
       </c>
       <c r="M11" t="n">
-        <v>619.1207068660991</v>
+        <v>619.1207068660981</v>
       </c>
       <c r="N11" t="n">
-        <v>633.7991396778352</v>
+        <v>633.7991396778343</v>
       </c>
       <c r="O11" t="n">
-        <v>585.0085943141179</v>
+        <v>585.008594314117</v>
       </c>
       <c r="P11" t="n">
-        <v>464.4418047777979</v>
+        <v>464.4418047777971</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.1171132379385</v>
+        <v>300.1171132379379</v>
       </c>
       <c r="R11" t="n">
-        <v>88.30390813286283</v>
+        <v>88.30390813286249</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.7118263977515</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>76.42743998839451</v>
       </c>
       <c r="L12" t="n">
-        <v>423.4631994390124</v>
+        <v>423.4631994390117</v>
       </c>
       <c r="M12" t="n">
-        <v>513.7139723697717</v>
+        <v>513.713972369771</v>
       </c>
       <c r="N12" t="n">
-        <v>541.8646393983504</v>
+        <v>541.8646393983497</v>
       </c>
       <c r="O12" t="n">
-        <v>473.2560456249815</v>
+        <v>473.2560456249809</v>
       </c>
       <c r="P12" t="n">
-        <v>360.3013498633565</v>
+        <v>360.3013498633559</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.4284799405713</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.710786445571553</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.06328777116755</v>
+        <v>60.06328777116738</v>
       </c>
       <c r="K13" t="n">
-        <v>229.8507524336773</v>
+        <v>229.850752433677</v>
       </c>
       <c r="L13" t="n">
-        <v>350.2171359505234</v>
+        <v>350.2171359505229</v>
       </c>
       <c r="M13" t="n">
-        <v>379.7489295258152</v>
+        <v>379.7489295258148</v>
       </c>
       <c r="N13" t="n">
-        <v>376.2088602995086</v>
+        <v>376.2088602995083</v>
       </c>
       <c r="O13" t="n">
-        <v>331.3116973778615</v>
+        <v>331.3116973778612</v>
       </c>
       <c r="P13" t="n">
-        <v>259.7361280934684</v>
+        <v>259.7361280934681</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.54997317043463</v>
+        <v>95.54997317043443</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>229.5522585751186</v>
+        <v>229.5522585751184</v>
       </c>
       <c r="K14" t="n">
-        <v>395.2903588510263</v>
+        <v>395.2903588510259</v>
       </c>
       <c r="L14" t="n">
-        <v>527.6671510464557</v>
+        <v>527.6671510464553</v>
       </c>
       <c r="M14" t="n">
-        <v>619.1207068660988</v>
+        <v>619.1207068660983</v>
       </c>
       <c r="N14" t="n">
-        <v>633.7991396778348</v>
+        <v>633.7991396778343</v>
       </c>
       <c r="O14" t="n">
-        <v>585.0085943141175</v>
+        <v>585.0085943141171</v>
       </c>
       <c r="P14" t="n">
-        <v>464.4418047777977</v>
+        <v>464.4418047777972</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.1171132379383</v>
+        <v>300.117113237938</v>
       </c>
       <c r="R14" t="n">
-        <v>88.30390813286272</v>
+        <v>88.30390813286255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>117.7118263977517</v>
+        <v>117.7118263977515</v>
       </c>
       <c r="K15" t="n">
-        <v>280.1325275765296</v>
+        <v>280.1325275765293</v>
       </c>
       <c r="L15" t="n">
-        <v>423.4631994390122</v>
+        <v>423.4631994390118</v>
       </c>
       <c r="M15" t="n">
-        <v>513.7139723697715</v>
+        <v>513.7139723697712</v>
       </c>
       <c r="N15" t="n">
-        <v>541.8646393983502</v>
+        <v>338.1595518102142</v>
       </c>
       <c r="O15" t="n">
-        <v>473.2560456249813</v>
+        <v>473.256045624981</v>
       </c>
       <c r="P15" t="n">
-        <v>156.5962622752187</v>
+        <v>360.3013498633561</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.0632877711675</v>
+        <v>60.06328777116741</v>
       </c>
       <c r="K16" t="n">
-        <v>229.8507524336772</v>
+        <v>229.850752433677</v>
       </c>
       <c r="L16" t="n">
-        <v>350.2171359505231</v>
+        <v>350.217135950523</v>
       </c>
       <c r="M16" t="n">
-        <v>379.7489295258151</v>
+        <v>379.7489295258148</v>
       </c>
       <c r="N16" t="n">
-        <v>376.2088602995085</v>
+        <v>376.2088602995084</v>
       </c>
       <c r="O16" t="n">
-        <v>331.3116973778614</v>
+        <v>331.3116973778612</v>
       </c>
       <c r="P16" t="n">
-        <v>259.7361280934683</v>
+        <v>259.7361280934682</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.54997317043457</v>
+        <v>95.54997317043446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>229.5522585751186</v>
+        <v>229.5522585751184</v>
       </c>
       <c r="K17" t="n">
-        <v>395.2903588510263</v>
+        <v>395.2903588510259</v>
       </c>
       <c r="L17" t="n">
-        <v>527.6671510464557</v>
+        <v>527.6671510464553</v>
       </c>
       <c r="M17" t="n">
-        <v>619.1207068660988</v>
+        <v>619.1207068660983</v>
       </c>
       <c r="N17" t="n">
-        <v>633.7991396778348</v>
+        <v>633.7991396778343</v>
       </c>
       <c r="O17" t="n">
-        <v>585.0085943141175</v>
+        <v>585.0085943141171</v>
       </c>
       <c r="P17" t="n">
-        <v>464.4418047777977</v>
+        <v>464.4418047777972</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.1171132379383</v>
+        <v>300.117113237938</v>
       </c>
       <c r="R17" t="n">
-        <v>88.30390813286272</v>
+        <v>88.30390813286255</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>117.7118263977517</v>
+        <v>117.7118263977515</v>
       </c>
       <c r="K18" t="n">
-        <v>280.1325275765296</v>
+        <v>280.1325275765293</v>
       </c>
       <c r="L18" t="n">
-        <v>423.4631994390122</v>
+        <v>423.4631994390118</v>
       </c>
       <c r="M18" t="n">
-        <v>513.7139723697715</v>
+        <v>513.7139723697712</v>
       </c>
       <c r="N18" t="n">
-        <v>541.8646393983502</v>
+        <v>338.1595518102142</v>
       </c>
       <c r="O18" t="n">
-        <v>269.5509580368436</v>
+        <v>473.256045624981</v>
       </c>
       <c r="P18" t="n">
-        <v>360.3013498633563</v>
+        <v>360.3013498633561</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.67349012338144</v>
+        <v>91.67349012338134</v>
       </c>
       <c r="K19" t="n">
-        <v>261.4609547858911</v>
+        <v>261.4609547858909</v>
       </c>
       <c r="L19" t="n">
-        <v>381.8273383027371</v>
+        <v>381.827338302737</v>
       </c>
       <c r="M19" t="n">
-        <v>411.359131878029</v>
+        <v>411.3591318780288</v>
       </c>
       <c r="N19" t="n">
-        <v>407.8190626517224</v>
+        <v>407.8190626517223</v>
       </c>
       <c r="O19" t="n">
-        <v>362.9218997300753</v>
+        <v>362.9218997300752</v>
       </c>
       <c r="P19" t="n">
-        <v>291.3463304456822</v>
+        <v>291.3463304456821</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.1601755226485</v>
+        <v>127.1601755226484</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>229.5522585751186</v>
+        <v>229.5522585751184</v>
       </c>
       <c r="K20" t="n">
-        <v>395.2903588510262</v>
+        <v>395.2903588510259</v>
       </c>
       <c r="L20" t="n">
-        <v>527.6671510464555</v>
+        <v>527.6671510464553</v>
       </c>
       <c r="M20" t="n">
-        <v>619.1207068660987</v>
+        <v>619.1207068660983</v>
       </c>
       <c r="N20" t="n">
-        <v>633.7991396778348</v>
+        <v>633.7991396778343</v>
       </c>
       <c r="O20" t="n">
-        <v>585.0085943141174</v>
+        <v>585.0085943141171</v>
       </c>
       <c r="P20" t="n">
-        <v>464.4418047777976</v>
+        <v>464.4418047777972</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.1171132379382</v>
+        <v>300.117113237938</v>
       </c>
       <c r="R20" t="n">
-        <v>88.30390813286266</v>
+        <v>88.30390813286255</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>117.7118263977516</v>
+        <v>117.7118263977515</v>
       </c>
       <c r="K21" t="n">
-        <v>280.1325275765295</v>
+        <v>280.1325275765293</v>
       </c>
       <c r="L21" t="n">
-        <v>423.463199439012</v>
+        <v>423.4631994390118</v>
       </c>
       <c r="M21" t="n">
-        <v>513.7139723697715</v>
+        <v>513.7139723697712</v>
       </c>
       <c r="N21" t="n">
-        <v>541.8646393983501</v>
+        <v>338.1595518102142</v>
       </c>
       <c r="O21" t="n">
-        <v>473.2560456249812</v>
+        <v>473.256045624981</v>
       </c>
       <c r="P21" t="n">
-        <v>156.5962622752196</v>
+        <v>360.3013498633561</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.67349012338141</v>
+        <v>91.67349012338134</v>
       </c>
       <c r="K22" t="n">
-        <v>261.460954785891</v>
+        <v>261.4609547858909</v>
       </c>
       <c r="L22" t="n">
-        <v>381.8273383027371</v>
+        <v>381.827338302737</v>
       </c>
       <c r="M22" t="n">
-        <v>411.359131878029</v>
+        <v>411.3591318780288</v>
       </c>
       <c r="N22" t="n">
-        <v>407.8190626517224</v>
+        <v>407.8190626517223</v>
       </c>
       <c r="O22" t="n">
-        <v>362.9218997300753</v>
+        <v>362.9218997300752</v>
       </c>
       <c r="P22" t="n">
-        <v>291.3463304456822</v>
+        <v>291.3463304456821</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.1601755226485</v>
+        <v>127.1601755226484</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>86.05397602152078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>478.0017368594328</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
@@ -36452,10 +36452,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>25.01512932375741</v>
@@ -36674,10 +36674,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
@@ -37157,10 +37157,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O33" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>334.4150015371014</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O39" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>424.3782261294555</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>369.285085487242</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
@@ -37880,7 +37880,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>459.7248180341467</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
